--- a/innovation moderate/produccion-energetica/m218807.xlsx
+++ b/innovation moderate/produccion-energetica/m218807.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo294557_uniovi_es/Documents/Hackathon/hackathon/innovation moderate/produccion-energetica/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D96096B6C0164543BFBEC114DF2528E350C388BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="EnergiaCaldera_M218807.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="EnergiaCaldera_M218807.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2521,15 +2530,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -2540,36 +2550,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2759,20 +2776,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B439"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2788,7 +2810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2796,7 +2818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2804,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +2834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2820,7 +2842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2828,7 +2850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2836,7 +2858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2844,7 +2866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2852,7 +2874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2860,7 +2882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2868,7 +2890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2876,7 +2898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2884,7 +2906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2892,7 +2914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2900,7 +2922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2908,7 +2930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -2916,7 +2938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2924,7 +2946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2932,7 +2954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -2940,7 +2962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2948,7 +2970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2956,7 +2978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2964,7 +2986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2972,7 +2994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2980,7 +3002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2988,7 +3010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2996,7 +3018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -3004,7 +3026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -3012,7 +3034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -3020,7 +3042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -3028,7 +3050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -3036,7 +3058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -3044,7 +3066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -3052,7 +3074,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -3060,7 +3082,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -3068,7 +3090,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -3076,7 +3098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -3084,7 +3106,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -3092,7 +3114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -3100,7 +3122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -3108,7 +3130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -3116,7 +3138,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -3124,7 +3146,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -3132,7 +3154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -3140,7 +3162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -3148,7 +3170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3156,7 +3178,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -3164,7 +3186,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -3172,7 +3194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -3180,7 +3202,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -3188,7 +3210,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -3196,7 +3218,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3204,7 +3226,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -3212,7 +3234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3220,7 +3242,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -3228,7 +3250,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -3236,7 +3258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -3244,7 +3266,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3252,7 +3274,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3260,7 +3282,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -3268,7 +3290,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -3276,7 +3298,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -3284,7 +3306,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -3292,7 +3314,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -3300,7 +3322,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -3308,7 +3330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -3316,7 +3338,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -3324,7 +3346,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -3332,7 +3354,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -3340,7 +3362,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -3348,7 +3370,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -3356,7 +3378,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -3364,7 +3386,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -3372,7 +3394,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -3380,7 +3402,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -3388,7 +3410,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -3396,7 +3418,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -3404,7 +3426,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -3412,7 +3434,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -3420,7 +3442,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -3428,7 +3450,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -3436,7 +3458,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -3444,7 +3466,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -3452,7 +3474,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -3460,7 +3482,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -3468,7 +3490,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -3476,7 +3498,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -3484,7 +3506,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -3492,7 +3514,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -3500,7 +3522,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -3508,7 +3530,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -3516,7 +3538,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -3524,7 +3546,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -3532,7 +3554,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -3540,7 +3562,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -3548,7 +3570,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -3556,7 +3578,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -3564,7 +3586,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -3572,7 +3594,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -3580,7 +3602,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -3588,7 +3610,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -3596,7 +3618,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -3604,7 +3626,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -3612,7 +3634,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -3620,7 +3642,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -3628,7 +3650,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -3636,7 +3658,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -3644,7 +3666,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -3652,7 +3674,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -3660,7 +3682,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -3668,7 +3690,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -3676,7 +3698,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>225</v>
       </c>
@@ -3684,7 +3706,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>227</v>
       </c>
@@ -3692,7 +3714,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>229</v>
       </c>
@@ -3700,7 +3722,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>230</v>
       </c>
@@ -3708,7 +3730,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
@@ -3716,7 +3738,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>234</v>
       </c>
@@ -3724,7 +3746,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>236</v>
       </c>
@@ -3732,7 +3754,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>238</v>
       </c>
@@ -3740,7 +3762,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>240</v>
       </c>
@@ -3748,7 +3770,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>242</v>
       </c>
@@ -3756,7 +3778,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>244</v>
       </c>
@@ -3764,7 +3786,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>246</v>
       </c>
@@ -3772,7 +3794,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>248</v>
       </c>
@@ -3780,7 +3802,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>250</v>
       </c>
@@ -3788,7 +3810,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>251</v>
       </c>
@@ -3796,7 +3818,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>253</v>
       </c>
@@ -3804,7 +3826,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>255</v>
       </c>
@@ -3812,7 +3834,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>256</v>
       </c>
@@ -3820,7 +3842,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>258</v>
       </c>
@@ -3828,7 +3850,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>260</v>
       </c>
@@ -3836,7 +3858,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>261</v>
       </c>
@@ -3844,7 +3866,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>263</v>
       </c>
@@ -3852,7 +3874,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>265</v>
       </c>
@@ -3860,7 +3882,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
@@ -3868,7 +3890,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>268</v>
       </c>
@@ -3876,7 +3898,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>270</v>
       </c>
@@ -3884,7 +3906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>271</v>
       </c>
@@ -3892,7 +3914,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>273</v>
       </c>
@@ -3900,7 +3922,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>275</v>
       </c>
@@ -3908,7 +3930,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>276</v>
       </c>
@@ -3916,7 +3938,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>278</v>
       </c>
@@ -3924,7 +3946,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>280</v>
       </c>
@@ -3932,7 +3954,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>281</v>
       </c>
@@ -3940,7 +3962,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>283</v>
       </c>
@@ -3948,7 +3970,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>285</v>
       </c>
@@ -3956,7 +3978,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>286</v>
       </c>
@@ -3964,7 +3986,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>288</v>
       </c>
@@ -3972,7 +3994,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>289</v>
       </c>
@@ -3980,7 +4002,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>291</v>
       </c>
@@ -3988,7 +4010,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>293</v>
       </c>
@@ -3996,7 +4018,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>294</v>
       </c>
@@ -4004,7 +4026,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>296</v>
       </c>
@@ -4012,7 +4034,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>298</v>
       </c>
@@ -4020,7 +4042,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>299</v>
       </c>
@@ -4028,7 +4050,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>301</v>
       </c>
@@ -4036,7 +4058,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>302</v>
       </c>
@@ -4044,7 +4066,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>304</v>
       </c>
@@ -4052,7 +4074,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>305</v>
       </c>
@@ -4060,7 +4082,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>307</v>
       </c>
@@ -4068,7 +4090,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>308</v>
       </c>
@@ -4076,7 +4098,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>309</v>
       </c>
@@ -4084,7 +4106,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>311</v>
       </c>
@@ -4092,7 +4114,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>312</v>
       </c>
@@ -4100,7 +4122,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>314</v>
       </c>
@@ -4108,7 +4130,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>315</v>
       </c>
@@ -4116,7 +4138,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>317</v>
       </c>
@@ -4124,7 +4146,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>318</v>
       </c>
@@ -4132,7 +4154,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>320</v>
       </c>
@@ -4140,7 +4162,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>321</v>
       </c>
@@ -4148,7 +4170,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>322</v>
       </c>
@@ -4156,7 +4178,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>324</v>
       </c>
@@ -4164,7 +4186,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>325</v>
       </c>
@@ -4172,7 +4194,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>327</v>
       </c>
@@ -4180,7 +4202,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>329</v>
       </c>
@@ -4188,7 +4210,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>331</v>
       </c>
@@ -4196,7 +4218,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>332</v>
       </c>
@@ -4204,7 +4226,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>333</v>
       </c>
@@ -4212,7 +4234,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>335</v>
       </c>
@@ -4220,7 +4242,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>336</v>
       </c>
@@ -4228,7 +4250,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>338</v>
       </c>
@@ -4236,7 +4258,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>339</v>
       </c>
@@ -4244,7 +4266,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>341</v>
       </c>
@@ -4252,7 +4274,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>342</v>
       </c>
@@ -4260,7 +4282,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>343</v>
       </c>
@@ -4268,7 +4290,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>345</v>
       </c>
@@ -4276,7 +4298,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>347</v>
       </c>
@@ -4284,7 +4306,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>349</v>
       </c>
@@ -4292,7 +4314,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>350</v>
       </c>
@@ -4300,7 +4322,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>352</v>
       </c>
@@ -4308,7 +4330,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>354</v>
       </c>
@@ -4316,7 +4338,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>355</v>
       </c>
@@ -4324,7 +4346,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>357</v>
       </c>
@@ -4332,7 +4354,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>358</v>
       </c>
@@ -4340,7 +4362,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>360</v>
       </c>
@@ -4348,7 +4370,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>362</v>
       </c>
@@ -4356,7 +4378,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>363</v>
       </c>
@@ -4364,7 +4386,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>365</v>
       </c>
@@ -4372,7 +4394,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>367</v>
       </c>
@@ -4380,7 +4402,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>369</v>
       </c>
@@ -4388,7 +4410,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>371</v>
       </c>
@@ -4396,7 +4418,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>373</v>
       </c>
@@ -4404,7 +4426,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>375</v>
       </c>
@@ -4412,7 +4434,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>377</v>
       </c>
@@ -4420,7 +4442,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>379</v>
       </c>
@@ -4428,7 +4450,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>381</v>
       </c>
@@ -4436,7 +4458,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>383</v>
       </c>
@@ -4444,7 +4466,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>385</v>
       </c>
@@ -4452,7 +4474,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>387</v>
       </c>
@@ -4460,7 +4482,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>389</v>
       </c>
@@ -4468,7 +4490,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>391</v>
       </c>
@@ -4476,7 +4498,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>393</v>
       </c>
@@ -4484,7 +4506,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>395</v>
       </c>
@@ -4492,7 +4514,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>397</v>
       </c>
@@ -4500,7 +4522,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>399</v>
       </c>
@@ -4508,7 +4530,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>401</v>
       </c>
@@ -4516,7 +4538,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>403</v>
       </c>
@@ -4524,7 +4546,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>405</v>
       </c>
@@ -4532,7 +4554,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>407</v>
       </c>
@@ -4540,7 +4562,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>409</v>
       </c>
@@ -4548,7 +4570,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>411</v>
       </c>
@@ -4556,7 +4578,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>413</v>
       </c>
@@ -4564,7 +4586,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>415</v>
       </c>
@@ -4572,7 +4594,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>417</v>
       </c>
@@ -4580,7 +4602,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>419</v>
       </c>
@@ -4588,7 +4610,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>421</v>
       </c>
@@ -4596,7 +4618,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>423</v>
       </c>
@@ -4604,7 +4626,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>425</v>
       </c>
@@ -4612,7 +4634,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>427</v>
       </c>
@@ -4620,7 +4642,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>429</v>
       </c>
@@ -4628,7 +4650,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>431</v>
       </c>
@@ -4636,7 +4658,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>433</v>
       </c>
@@ -4644,7 +4666,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>435</v>
       </c>
@@ -4652,7 +4674,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>437</v>
       </c>
@@ -4660,7 +4682,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>439</v>
       </c>
@@ -4668,7 +4690,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>441</v>
       </c>
@@ -4676,7 +4698,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>443</v>
       </c>
@@ -4684,7 +4706,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>445</v>
       </c>
@@ -4692,7 +4714,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>447</v>
       </c>
@@ -4700,7 +4722,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>449</v>
       </c>
@@ -4708,7 +4730,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>451</v>
       </c>
@@ -4716,7 +4738,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>453</v>
       </c>
@@ -4724,7 +4746,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>455</v>
       </c>
@@ -4732,7 +4754,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>457</v>
       </c>
@@ -4740,7 +4762,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>459</v>
       </c>
@@ -4748,7 +4770,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>461</v>
       </c>
@@ -4756,7 +4778,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>463</v>
       </c>
@@ -4764,7 +4786,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>465</v>
       </c>
@@ -4772,7 +4794,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>467</v>
       </c>
@@ -4780,7 +4802,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>469</v>
       </c>
@@ -4788,7 +4810,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>471</v>
       </c>
@@ -4796,7 +4818,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>473</v>
       </c>
@@ -4804,7 +4826,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>475</v>
       </c>
@@ -4812,7 +4834,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>477</v>
       </c>
@@ -4820,7 +4842,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>479</v>
       </c>
@@ -4828,7 +4850,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>481</v>
       </c>
@@ -4836,7 +4858,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>483</v>
       </c>
@@ -4844,7 +4866,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>485</v>
       </c>
@@ -4852,7 +4874,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>487</v>
       </c>
@@ -4860,7 +4882,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>489</v>
       </c>
@@ -4868,7 +4890,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>491</v>
       </c>
@@ -4876,7 +4898,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>493</v>
       </c>
@@ -4884,7 +4906,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>495</v>
       </c>
@@ -4892,7 +4914,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>497</v>
       </c>
@@ -4900,7 +4922,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>499</v>
       </c>
@@ -4908,7 +4930,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>501</v>
       </c>
@@ -4916,7 +4938,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>503</v>
       </c>
@@ -4924,7 +4946,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>505</v>
       </c>
@@ -4932,7 +4954,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>507</v>
       </c>
@@ -4940,7 +4962,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>509</v>
       </c>
@@ -4948,7 +4970,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>511</v>
       </c>
@@ -4956,7 +4978,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>513</v>
       </c>
@@ -4964,7 +4986,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>515</v>
       </c>
@@ -4972,7 +4994,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>517</v>
       </c>
@@ -4980,7 +5002,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>519</v>
       </c>
@@ -4988,7 +5010,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>521</v>
       </c>
@@ -4996,7 +5018,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>523</v>
       </c>
@@ -5004,7 +5026,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>525</v>
       </c>
@@ -5012,7 +5034,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>527</v>
       </c>
@@ -5020,7 +5042,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>529</v>
       </c>
@@ -5028,7 +5050,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>531</v>
       </c>
@@ -5036,7 +5058,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>533</v>
       </c>
@@ -5044,7 +5066,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>535</v>
       </c>
@@ -5052,7 +5074,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>537</v>
       </c>
@@ -5060,7 +5082,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>539</v>
       </c>
@@ -5068,7 +5090,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>541</v>
       </c>
@@ -5076,7 +5098,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>543</v>
       </c>
@@ -5084,7 +5106,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>545</v>
       </c>
@@ -5092,7 +5114,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>547</v>
       </c>
@@ -5100,7 +5122,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>549</v>
       </c>
@@ -5108,7 +5130,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>551</v>
       </c>
@@ -5116,7 +5138,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>553</v>
       </c>
@@ -5124,7 +5146,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>555</v>
       </c>
@@ -5132,7 +5154,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>557</v>
       </c>
@@ -5140,7 +5162,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>559</v>
       </c>
@@ -5148,7 +5170,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>561</v>
       </c>
@@ -5156,7 +5178,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>563</v>
       </c>
@@ -5164,7 +5186,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>565</v>
       </c>
@@ -5172,7 +5194,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>567</v>
       </c>
@@ -5180,7 +5202,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>569</v>
       </c>
@@ -5188,7 +5210,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>571</v>
       </c>
@@ -5196,7 +5218,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>573</v>
       </c>
@@ -5204,7 +5226,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>575</v>
       </c>
@@ -5212,7 +5234,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>577</v>
       </c>
@@ -5220,7 +5242,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>579</v>
       </c>
@@ -5228,7 +5250,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>581</v>
       </c>
@@ -5236,7 +5258,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>583</v>
       </c>
@@ -5244,7 +5266,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>585</v>
       </c>
@@ -5252,7 +5274,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>587</v>
       </c>
@@ -5260,7 +5282,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>589</v>
       </c>
@@ -5268,7 +5290,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>591</v>
       </c>
@@ -5276,7 +5298,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>593</v>
       </c>
@@ -5284,7 +5306,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>595</v>
       </c>
@@ -5292,7 +5314,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>597</v>
       </c>
@@ -5300,7 +5322,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>599</v>
       </c>
@@ -5308,7 +5330,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>601</v>
       </c>
@@ -5316,7 +5338,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>603</v>
       </c>
@@ -5324,7 +5346,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>605</v>
       </c>
@@ -5332,7 +5354,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>607</v>
       </c>
@@ -5340,7 +5362,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>609</v>
       </c>
@@ -5348,7 +5370,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>611</v>
       </c>
@@ -5356,7 +5378,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>613</v>
       </c>
@@ -5364,7 +5386,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>615</v>
       </c>
@@ -5372,7 +5394,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>617</v>
       </c>
@@ -5380,7 +5402,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>619</v>
       </c>
@@ -5388,7 +5410,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>621</v>
       </c>
@@ -5396,7 +5418,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>623</v>
       </c>
@@ -5404,7 +5426,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>625</v>
       </c>
@@ -5412,7 +5434,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>627</v>
       </c>
@@ -5420,7 +5442,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>629</v>
       </c>
@@ -5428,7 +5450,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>631</v>
       </c>
@@ -5436,7 +5458,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>633</v>
       </c>
@@ -5444,7 +5466,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>635</v>
       </c>
@@ -5452,7 +5474,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>637</v>
       </c>
@@ -5460,7 +5482,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>639</v>
       </c>
@@ -5468,7 +5490,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>641</v>
       </c>
@@ -5476,7 +5498,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>643</v>
       </c>
@@ -5484,7 +5506,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>645</v>
       </c>
@@ -5492,7 +5514,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>647</v>
       </c>
@@ -5500,7 +5522,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>649</v>
       </c>
@@ -5508,7 +5530,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>651</v>
       </c>
@@ -5516,7 +5538,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>653</v>
       </c>
@@ -5524,7 +5546,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>655</v>
       </c>
@@ -5532,7 +5554,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>657</v>
       </c>
@@ -5540,7 +5562,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>659</v>
       </c>
@@ -5548,7 +5570,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>661</v>
       </c>
@@ -5556,7 +5578,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>663</v>
       </c>
@@ -5564,7 +5586,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>665</v>
       </c>
@@ -5572,7 +5594,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>667</v>
       </c>
@@ -5580,7 +5602,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>669</v>
       </c>
@@ -5588,7 +5610,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>671</v>
       </c>
@@ -5596,7 +5618,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>673</v>
       </c>
@@ -5604,7 +5626,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>675</v>
       </c>
@@ -5612,7 +5634,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>677</v>
       </c>
@@ -5620,7 +5642,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>679</v>
       </c>
@@ -5628,7 +5650,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>681</v>
       </c>
@@ -5636,7 +5658,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>683</v>
       </c>
@@ -5644,7 +5666,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>685</v>
       </c>
@@ -5652,7 +5674,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>687</v>
       </c>
@@ -5660,7 +5682,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>689</v>
       </c>
@@ -5668,7 +5690,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>691</v>
       </c>
@@ -5676,7 +5698,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>693</v>
       </c>
@@ -5684,7 +5706,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>695</v>
       </c>
@@ -5692,7 +5714,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>697</v>
       </c>
@@ -5700,7 +5722,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>699</v>
       </c>
@@ -5708,7 +5730,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>701</v>
       </c>
@@ -5716,7 +5738,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>703</v>
       </c>
@@ -5724,7 +5746,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>705</v>
       </c>
@@ -5732,7 +5754,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>707</v>
       </c>
@@ -5740,7 +5762,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>709</v>
       </c>
@@ -5748,7 +5770,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>711</v>
       </c>
@@ -5756,7 +5778,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>713</v>
       </c>
@@ -5764,7 +5786,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>715</v>
       </c>
@@ -5772,7 +5794,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>717</v>
       </c>
@@ -5780,7 +5802,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>719</v>
       </c>
@@ -5788,7 +5810,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>721</v>
       </c>
@@ -5796,7 +5818,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>723</v>
       </c>
@@ -5804,7 +5826,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>725</v>
       </c>
@@ -5812,7 +5834,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>727</v>
       </c>
@@ -5820,7 +5842,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>729</v>
       </c>
@@ -5828,7 +5850,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>731</v>
       </c>
@@ -5836,7 +5858,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>733</v>
       </c>
@@ -5844,7 +5866,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>735</v>
       </c>
@@ -5852,7 +5874,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>737</v>
       </c>
@@ -5860,7 +5882,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>739</v>
       </c>
@@ -5868,7 +5890,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>741</v>
       </c>
@@ -5876,7 +5898,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>743</v>
       </c>
@@ -5884,7 +5906,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>745</v>
       </c>
@@ -5892,7 +5914,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>747</v>
       </c>
@@ -5900,7 +5922,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>749</v>
       </c>
@@ -5908,7 +5930,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>751</v>
       </c>
@@ -5916,7 +5938,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>753</v>
       </c>
@@ -5924,7 +5946,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>755</v>
       </c>
@@ -5932,7 +5954,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>757</v>
       </c>
@@ -5940,7 +5962,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>759</v>
       </c>
@@ -5948,7 +5970,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>761</v>
       </c>
@@ -5956,7 +5978,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>763</v>
       </c>
@@ -5964,7 +5986,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>765</v>
       </c>
@@ -5972,7 +5994,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>767</v>
       </c>
@@ -5980,7 +6002,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>769</v>
       </c>
@@ -5988,7 +6010,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>771</v>
       </c>
@@ -5996,7 +6018,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>773</v>
       </c>
@@ -6004,7 +6026,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>775</v>
       </c>
@@ -6012,7 +6034,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>777</v>
       </c>
@@ -6020,7 +6042,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>779</v>
       </c>
@@ -6028,7 +6050,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>781</v>
       </c>
@@ -6036,7 +6058,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>783</v>
       </c>
@@ -6044,7 +6066,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>785</v>
       </c>
@@ -6052,7 +6074,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>787</v>
       </c>
@@ -6060,7 +6082,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>789</v>
       </c>
@@ -6068,7 +6090,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>791</v>
       </c>
@@ -6076,7 +6098,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>793</v>
       </c>
@@ -6084,7 +6106,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>795</v>
       </c>
@@ -6092,7 +6114,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>797</v>
       </c>
@@ -6100,7 +6122,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>799</v>
       </c>
@@ -6108,7 +6130,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>801</v>
       </c>
@@ -6116,7 +6138,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>802</v>
       </c>
@@ -6124,7 +6146,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>804</v>
       </c>
@@ -6132,7 +6154,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>806</v>
       </c>
@@ -6140,7 +6162,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>807</v>
       </c>
@@ -6148,7 +6170,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>809</v>
       </c>
@@ -6156,7 +6178,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>811</v>
       </c>
@@ -6164,7 +6186,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>813</v>
       </c>
@@ -6172,7 +6194,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>814</v>
       </c>
@@ -6180,7 +6202,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>816</v>
       </c>
@@ -6188,7 +6210,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>817</v>
       </c>
@@ -6196,7 +6218,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>819</v>
       </c>
@@ -6204,7 +6226,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>821</v>
       </c>
@@ -6212,7 +6234,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>822</v>
       </c>
@@ -6220,7 +6242,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>823</v>
       </c>
@@ -6228,7 +6250,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>825</v>
       </c>
@@ -6236,7 +6258,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>826</v>
       </c>
@@ -6244,7 +6266,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>828</v>
       </c>
@@ -6252,7 +6274,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>829</v>
       </c>
@@ -6260,7 +6282,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>831</v>
       </c>
@@ -6268,7 +6290,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>832</v>
       </c>
@@ -6276,7 +6298,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>833</v>
       </c>
@@ -6285,6 +6307,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>